--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="164">
   <si>
     <t>Pāli1</t>
   </si>
@@ -187,24 +187,15 @@
     <t>bāla 4</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
     <t>kāya 1</t>
   </si>
   <si>
     <t>kassapa 1</t>
   </si>
   <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
     <t>attha 5</t>
   </si>
   <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
     <t>patta 1</t>
   </si>
   <si>
@@ -433,22 +424,13 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
     <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
   </si>
   <si>
     <t>bowl; alms bowl</t>
@@ -881,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -909,16 +891,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -926,16 +908,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -943,16 +925,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
         <v>86</v>
       </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -960,16 +942,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -977,16 +959,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -994,16 +976,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1011,16 +993,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1028,16 +1010,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1045,16 +1027,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1062,16 +1044,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1079,16 +1061,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1096,16 +1078,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1113,16 +1095,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1130,16 +1112,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1147,16 +1129,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1164,16 +1146,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1181,16 +1163,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1198,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1215,16 +1197,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1232,16 +1214,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1249,16 +1231,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E22" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1266,16 +1248,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1283,16 +1265,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1300,16 +1282,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1317,16 +1299,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1334,16 +1316,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1351,16 +1333,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1368,16 +1350,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1385,16 +1367,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1402,16 +1384,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1419,16 +1401,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1436,16 +1418,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1453,16 +1435,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1470,16 +1452,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1487,16 +1469,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1504,16 +1486,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1521,16 +1503,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1538,16 +1520,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1555,16 +1537,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1572,16 +1554,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1589,16 +1571,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1606,16 +1588,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1623,16 +1605,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1640,16 +1622,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1657,16 +1639,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1674,16 +1656,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1691,16 +1673,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1708,16 +1690,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1725,16 +1707,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1742,16 +1724,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1759,16 +1741,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E52" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1776,16 +1758,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1793,16 +1775,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1810,16 +1792,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1827,16 +1809,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E56" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1844,16 +1826,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1861,16 +1843,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1878,16 +1860,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E59" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1895,16 +1877,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E60" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1912,16 +1894,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E61" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1929,16 +1911,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E62" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1946,16 +1928,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1963,16 +1945,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1980,16 +1962,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1997,16 +1979,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2014,16 +1996,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E67" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2031,16 +2013,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E68" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2048,16 +2030,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2065,16 +2047,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2082,16 +2064,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2099,16 +2081,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2116,16 +2098,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E73" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2133,16 +2115,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E74" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2150,16 +2132,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E75" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2167,16 +2149,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D76" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2184,16 +2166,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E77" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2201,16 +2183,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E78" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2218,67 +2200,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D79" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E79" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
-      </c>
-      <c r="D80" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>166</v>
-      </c>
-      <c r="D81" t="s">
-        <v>168</v>
-      </c>
-      <c r="E81" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82" t="s">
-        <v>168</v>
-      </c>
-      <c r="E82" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="190">
   <si>
     <t>Pāli1</t>
   </si>
@@ -40,12 +40,36 @@
     <t>sāvaka</t>
   </si>
   <si>
+    <t>adhigama</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
     <t>loka 2</t>
   </si>
   <si>
     <t>sagga 2</t>
   </si>
   <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 2</t>
+  </si>
+  <si>
+    <t>nakha</t>
+  </si>
+  <si>
+    <t>loma</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
     <t>vinaya 1</t>
   </si>
   <si>
@@ -61,6 +85,9 @@
     <t>papañca</t>
   </si>
   <si>
+    <t>uposatha</t>
+  </si>
+  <si>
     <t>bhava 2</t>
   </si>
   <si>
@@ -85,6 +112,9 @@
     <t>pāda 1</t>
   </si>
   <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
     <t>niraya</t>
   </si>
   <si>
@@ -166,6 +196,9 @@
     <t>sahāya</t>
   </si>
   <si>
+    <t>rukkha</t>
+  </si>
+  <si>
     <t>buddha 1</t>
   </si>
   <si>
@@ -187,15 +220,24 @@
     <t>bāla 4</t>
   </si>
   <si>
+    <t>magga 1</t>
+  </si>
+  <si>
     <t>kāya 1</t>
   </si>
   <si>
     <t>kassapa 1</t>
   </si>
   <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
     <t>attha 5</t>
   </si>
   <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
     <t>patta 1</t>
   </si>
   <si>
@@ -229,9 +271,6 @@
     <t>thera 2</t>
   </si>
   <si>
-    <t>dhamma 3</t>
-  </si>
-  <si>
     <t>dhamma 9</t>
   </si>
   <si>
@@ -277,12 +316,36 @@
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>arrival (at); attainment (of); reaching (of)</t>
+  </si>
+  <si>
+    <t>method; system; (right) path</t>
+  </si>
+  <si>
+    <t>surpassing; overcoming; going beyond</t>
+  </si>
+  <si>
     <t>world; plane of existence</t>
   </si>
   <si>
     <t>heaven; state of happiness</t>
   </si>
   <si>
+    <t>distinction; attainment</t>
+  </si>
+  <si>
+    <t>tooth; tusk; fang</t>
+  </si>
+  <si>
+    <t>a nail; a claw</t>
+  </si>
+  <si>
+    <t>the hair on the body; pelt</t>
+  </si>
+  <si>
+    <t>hair of the head</t>
+  </si>
+  <si>
     <t>discipline; training; lit. leading out (from unwholesome)</t>
   </si>
   <si>
@@ -298,6 +361,9 @@
     <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
   </si>
   <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
     <t>being; existence; becoming</t>
   </si>
   <si>
@@ -322,6 +388,9 @@
     <t>leg; foot</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>hell; lit. no good fortune</t>
   </si>
   <si>
@@ -403,6 +472,9 @@
     <t>friend; companion; fellow traveller</t>
   </si>
   <si>
+    <t>tree</t>
+  </si>
+  <si>
     <t>the Buddha; Awakened One</t>
   </si>
   <si>
@@ -424,15 +496,24 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
+    <t>road; path; track</t>
+  </si>
+  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
     <t>need (for); want (for)</t>
   </si>
   <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
     <t>bowl; alms bowl</t>
   </si>
   <si>
@@ -464,9 +545,6 @@
   </si>
   <si>
     <t>elder; senior monk; monk with 10 or more vassa; lit. lasting</t>
-  </si>
-  <si>
-    <t>mental phenomena; mind object</t>
   </si>
   <si>
     <t>law; case; rule</t>
@@ -863,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -891,16 +969,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -908,16 +986,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -925,16 +1003,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -942,16 +1020,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -959,16 +1037,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -976,16 +1054,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -993,16 +1071,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1010,16 +1088,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1027,16 +1105,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1044,16 +1122,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1061,16 +1139,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1078,16 +1156,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1095,16 +1173,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1112,16 +1190,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1129,16 +1207,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1146,16 +1224,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1163,16 +1241,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1180,16 +1258,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1197,16 +1275,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1214,16 +1292,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1231,16 +1309,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1248,16 +1326,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E23" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1265,16 +1343,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1282,16 +1360,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1299,16 +1377,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E26" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1316,16 +1394,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1333,16 +1411,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1350,16 +1428,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E29" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1367,16 +1445,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E30" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1384,16 +1462,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1401,16 +1479,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1418,16 +1496,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1435,16 +1513,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1452,16 +1530,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1469,16 +1547,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E36" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1486,16 +1564,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1503,16 +1581,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1520,16 +1598,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E39" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1537,16 +1615,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1554,16 +1632,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E41" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1571,16 +1649,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1588,16 +1666,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1605,16 +1683,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E44" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1622,16 +1700,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1639,16 +1717,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1656,16 +1734,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E47" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1673,16 +1751,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1690,16 +1768,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1707,16 +1785,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E50" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1724,16 +1802,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E51" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1741,16 +1819,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E52" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1758,16 +1836,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E53" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1775,16 +1853,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E54" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1792,16 +1870,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E55" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1809,16 +1887,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E56" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1826,16 +1904,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1843,16 +1921,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1860,16 +1938,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1877,16 +1955,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D60" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1894,16 +1972,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E61" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1911,16 +1989,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1928,16 +2006,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E63" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1945,16 +2023,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1962,16 +2040,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E65" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1979,16 +2057,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E66" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1996,16 +2074,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E67" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2013,16 +2091,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E68" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2030,16 +2108,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E69" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2047,16 +2125,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E70" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2064,16 +2142,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E71" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2081,16 +2159,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2098,16 +2176,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D73" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E73" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2115,16 +2193,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E74" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2132,16 +2210,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D75" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E75" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2149,16 +2227,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D76" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2166,16 +2244,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D77" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E77" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2183,16 +2261,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D78" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E78" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2200,16 +2278,237 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E79" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
         <v>83</v>
       </c>
-      <c r="C79" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79" t="s">
-        <v>162</v>
-      </c>
-      <c r="E79" t="s">
-        <v>163</v>
+      <c r="B80" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" t="s">
+        <v>188</v>
+      </c>
+      <c r="E80" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" t="s">
+        <v>188</v>
+      </c>
+      <c r="E84" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E87" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" t="s">
+        <v>188</v>
+      </c>
+      <c r="E88" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" t="s">
+        <v>188</v>
+      </c>
+      <c r="E89" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" t="s">
+        <v>188</v>
+      </c>
+      <c r="E90" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" t="s">
+        <v>186</v>
+      </c>
+      <c r="D91" t="s">
+        <v>188</v>
+      </c>
+      <c r="E91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" t="s">
+        <v>188</v>
+      </c>
+      <c r="E92" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="184">
   <si>
     <t>Pāli1</t>
   </si>
@@ -49,12 +49,6 @@
     <t>samatikkama</t>
   </si>
   <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>sagga 2</t>
-  </si>
-  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t>bāla 4</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
     <t>kāya 1</t>
   </si>
   <si>
@@ -325,12 +316,6 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>heaven; state of happiness</t>
-  </si>
-  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -496,9 +481,6 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
@@ -562,7 +544,7 @@
     <t>attention; mental application; lit. making in mind</t>
   </si>
   <si>
-    <t>(vinaya) offence requiring involvement of the Community from start to finish</t>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
     <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
@@ -941,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -969,16 +951,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -986,16 +968,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1003,16 +985,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1020,16 +1002,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1037,16 +1019,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1054,16 +1036,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1071,16 +1053,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1088,16 +1070,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1105,16 +1087,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1122,16 +1104,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1139,16 +1121,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1156,16 +1138,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,16 +1155,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,16 +1172,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1207,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1224,16 +1206,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1241,16 +1223,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1258,16 +1240,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1275,16 +1257,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1292,16 +1274,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1309,16 +1291,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1326,16 +1308,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1343,16 +1325,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1360,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1377,16 +1359,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1394,16 +1376,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1411,16 +1393,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1428,16 +1410,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1445,16 +1427,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1462,16 +1444,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1479,16 +1461,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1496,16 +1478,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1513,16 +1495,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1530,16 +1512,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1547,16 +1529,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1564,16 +1546,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1581,16 +1563,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1598,16 +1580,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1615,16 +1597,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1632,16 +1614,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1649,16 +1631,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1666,16 +1648,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1683,16 +1665,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E44" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1700,16 +1682,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1717,16 +1699,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1734,16 +1716,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E47" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1751,16 +1733,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E48" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1768,16 +1750,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E49" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1785,16 +1767,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E50" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1802,16 +1784,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E51" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1819,16 +1801,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E52" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1836,16 +1818,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1853,16 +1835,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E54" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1870,16 +1852,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D55" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E55" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1887,16 +1869,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E56" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1904,16 +1886,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1921,16 +1903,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E58" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1938,16 +1920,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D59" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E59" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1955,16 +1937,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E60" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1972,16 +1954,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D61" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1989,16 +1971,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E62" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2006,16 +1988,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D63" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E63" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2023,16 +2005,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E64" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2040,16 +2022,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E65" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2057,16 +2039,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D66" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E66" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2074,16 +2056,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E67" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2091,16 +2073,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E68" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2108,16 +2090,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E69" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2125,16 +2107,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E70" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2142,16 +2124,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E71" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2159,16 +2141,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E72" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2176,16 +2158,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D73" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E73" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2193,16 +2175,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E74" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2210,16 +2192,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D75" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E75" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2227,16 +2209,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D76" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E76" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2244,16 +2226,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D77" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E77" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2261,16 +2243,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D78" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2278,16 +2260,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E79" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2295,16 +2277,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D80" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E80" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2312,16 +2294,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D81" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E81" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2329,16 +2311,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D82" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2346,16 +2328,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D83" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E83" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2363,16 +2345,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D84" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E84" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2380,16 +2362,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D85" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E85" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2397,16 +2379,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D86" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E86" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2414,16 +2396,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D87" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E87" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2431,16 +2413,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D88" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E88" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2448,67 +2430,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D89" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E89" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" t="s">
-        <v>96</v>
-      </c>
-      <c r="C90" t="s">
-        <v>185</v>
-      </c>
-      <c r="D90" t="s">
-        <v>188</v>
-      </c>
-      <c r="E90" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" t="s">
-        <v>96</v>
-      </c>
-      <c r="C91" t="s">
-        <v>186</v>
-      </c>
-      <c r="D91" t="s">
-        <v>188</v>
-      </c>
-      <c r="E91" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" t="s">
-        <v>187</v>
-      </c>
-      <c r="D92" t="s">
-        <v>188</v>
-      </c>
-      <c r="E92" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -421,7 +421,7 @@
     <t>abandoning; giving up; renunciation</t>
   </si>
   <si>
-    <t>personal name of the Buddha; of the Gotama family; lit. excellent bull</t>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
   </si>
   <si>
     <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="182">
   <si>
     <t>Pāli1</t>
   </si>
@@ -55,9 +55,6 @@
     <t>danta 2</t>
   </si>
   <si>
-    <t>nakha</t>
-  </si>
-  <si>
     <t>loma</t>
   </si>
   <si>
@@ -67,7 +64,7 @@
     <t>vinaya 1</t>
   </si>
   <si>
-    <t>dhamma 1</t>
+    <t>dhamma 03</t>
   </si>
   <si>
     <t>manussa</t>
@@ -127,7 +124,7 @@
     <t>soka</t>
   </si>
   <si>
-    <t>bheda 1</t>
+    <t>bheda 3</t>
   </si>
   <si>
     <t>khaya</t>
@@ -142,7 +139,7 @@
     <t>sekha</t>
   </si>
   <si>
-    <t>dhamma 5</t>
+    <t>dhamma 02</t>
   </si>
   <si>
     <t>anālaya 1</t>
@@ -205,13 +202,13 @@
     <t>uppāda</t>
   </si>
   <si>
-    <t>dhamma 2</t>
+    <t>dhamma 05</t>
   </si>
   <si>
     <t>moha</t>
   </si>
   <si>
-    <t>bāla 4</t>
+    <t>bāla 2</t>
   </si>
   <si>
     <t>kāya 1</t>
@@ -223,7 +220,7 @@
     <t>cāga 2</t>
   </si>
   <si>
-    <t>attha 5</t>
+    <t>attha 05</t>
   </si>
   <si>
     <t>abyāpāda</t>
@@ -262,7 +259,7 @@
     <t>thera 2</t>
   </si>
   <si>
-    <t>dhamma 9</t>
+    <t>dhamma 09</t>
   </si>
   <si>
     <t>nara</t>
@@ -322,9 +319,6 @@
     <t>tooth; tusk; fang</t>
   </si>
   <si>
-    <t>a nail; a claw</t>
-  </si>
-  <si>
     <t>the hair on the body; pelt</t>
   </si>
   <si>
@@ -352,7 +346,7 @@
     <t>being; existence; becoming</t>
   </si>
   <si>
-    <t>rainy season; rain</t>
+    <t>rainy season; monsoon</t>
   </si>
   <si>
     <t>house; dwelling place; residence</t>
@@ -472,7 +466,7 @@
     <t>arising; appearing; coming into being</t>
   </si>
   <si>
-    <t>state of mind</t>
+    <t>state of mind; mental states</t>
   </si>
   <si>
     <t>stupidity; delusion; illusion; confusion</t>
@@ -923,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -951,16 +945,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -968,16 +962,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -985,16 +979,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1002,16 +996,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1019,16 +1013,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1036,16 +1030,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1053,16 +1047,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1070,16 +1064,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1087,16 +1081,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1104,16 +1098,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1121,16 +1115,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1138,16 +1132,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1155,16 +1149,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1172,16 +1166,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1189,16 +1183,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1206,16 +1200,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1223,16 +1217,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1240,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1257,16 +1251,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1274,16 +1268,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1291,16 +1285,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1308,16 +1302,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1325,16 +1319,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1342,16 +1336,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1359,16 +1353,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1376,16 +1370,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1393,16 +1387,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1410,16 +1404,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1427,16 +1421,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1444,16 +1438,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1461,16 +1455,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1478,16 +1472,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1495,16 +1489,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1512,16 +1506,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1529,16 +1523,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1546,16 +1540,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1563,16 +1557,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1580,16 +1574,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1597,16 +1591,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1614,16 +1608,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1631,16 +1625,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1648,16 +1642,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1665,16 +1659,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1682,16 +1676,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1699,16 +1693,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1716,16 +1710,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1733,16 +1727,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1750,16 +1744,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E49" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1767,16 +1761,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1784,16 +1778,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1801,16 +1795,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1818,16 +1812,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1835,16 +1829,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1852,16 +1846,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1869,16 +1863,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1886,16 +1880,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1903,16 +1897,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1920,16 +1914,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1937,16 +1931,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1954,16 +1948,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1971,16 +1965,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E62" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1988,16 +1982,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2005,16 +1999,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2022,16 +2016,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2039,16 +2033,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2056,16 +2050,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2073,16 +2067,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2090,16 +2084,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2107,16 +2101,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2124,16 +2118,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2141,16 +2135,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E72" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2158,16 +2152,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2175,16 +2169,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,16 +2186,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,16 +2203,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E76" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2226,16 +2220,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2243,16 +2237,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2260,16 +2254,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E79" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2277,16 +2271,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E80" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2294,16 +2288,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E81" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2311,16 +2305,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2328,16 +2322,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E83" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2345,16 +2339,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E84" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2362,16 +2356,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E85" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2379,16 +2373,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E86" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2396,16 +2390,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E87" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2413,33 +2407,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E88" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" t="s">
-        <v>181</v>
-      </c>
-      <c r="D89" t="s">
-        <v>182</v>
-      </c>
-      <c r="E89" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -52,7 +52,7 @@
     <t>visesa 1</t>
   </si>
   <si>
-    <t>danta 2</t>
+    <t>danta 1</t>
   </si>
   <si>
     <t>loma</t>
@@ -316,7 +316,7 @@
     <t>distinction; attainment</t>
   </si>
   <si>
-    <t>tooth; tusk; fang</t>
+    <t>tooth</t>
   </si>
   <si>
     <t>the hair on the body; pelt</t>
@@ -325,7 +325,7 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out (from unwholesome)</t>
+    <t>discipline; training; lit. leading out</t>
   </si>
   <si>
     <t>teaching; doctrine</t>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -40,7 +40,7 @@
     <t>sāvaka</t>
   </si>
   <si>
-    <t>adhigama</t>
+    <t>adhigama 1</t>
   </si>
   <si>
     <t>ñāya</t>
@@ -55,7 +55,7 @@
     <t>danta 1</t>
   </si>
   <si>
-    <t>loma</t>
+    <t>loma 1</t>
   </si>
   <si>
     <t>kesa</t>
@@ -76,7 +76,7 @@
     <t>papañca</t>
   </si>
   <si>
-    <t>uposatha</t>
+    <t>uposatha 1</t>
   </si>
   <si>
     <t>bhava 2</t>
@@ -85,7 +85,7 @@
     <t>vassa 2</t>
   </si>
   <si>
-    <t>āvāsa</t>
+    <t>āvāsa 1</t>
   </si>
   <si>
     <t>samaya 1</t>
@@ -97,7 +97,7 @@
     <t>saṅkhāra 3</t>
   </si>
   <si>
-    <t>phassa</t>
+    <t>phassa 1</t>
   </si>
   <si>
     <t>pāda 1</t>
@@ -130,10 +130,10 @@
     <t>khaya</t>
   </si>
   <si>
-    <t>āsava</t>
-  </si>
-  <si>
-    <t>nīvaraṇa</t>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
   </si>
   <si>
     <t>sekha</t>
@@ -199,13 +199,13 @@
     <t>chanda 1</t>
   </si>
   <si>
-    <t>uppāda</t>
+    <t>uppāda 1</t>
   </si>
   <si>
     <t>dhamma 05</t>
   </si>
   <si>
-    <t>moha</t>
+    <t>moha 1</t>
   </si>
   <si>
     <t>bāla 2</t>
@@ -235,7 +235,7 @@
     <t>ākāsa 2</t>
   </si>
   <si>
-    <t>ācariya</t>
+    <t>ācariya 1</t>
   </si>
   <si>
     <t>upajjhāya</t>
@@ -274,19 +274,19 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 1</t>
+    <t>saṅghādisesa 2</t>
   </si>
   <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
-    <t>sīha</t>
-  </si>
-  <si>
-    <t>vitakka</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>vipāka</t>
   </si>
   <si>
     <t>viveka 1</t>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -319,7 +319,7 @@
     <t>tooth</t>
   </si>
   <si>
-    <t>the hair on the body; pelt</t>
+    <t>body hair</t>
   </si>
   <si>
     <t>hair of the head</t>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -76,6 +76,9 @@
     <t>papañca</t>
   </si>
   <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
     <t>uposatha 1</t>
   </si>
   <si>
@@ -217,39 +220,39 @@
     <t>kassapa 1</t>
   </si>
   <si>
+    <t>attha 05</t>
+  </si>
+  <si>
+    <t>patta 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
     <t>cāga 2</t>
   </si>
   <si>
-    <t>attha 05</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>patta 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
     <t>tathāgata</t>
   </si>
   <si>
@@ -274,9 +277,6 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
@@ -286,7 +286,7 @@
     <t>vitakka 1</t>
   </si>
   <si>
-    <t>vipāka</t>
+    <t>vipāka 1</t>
   </si>
   <si>
     <t>viveka 1</t>
@@ -340,6 +340,9 @@
     <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
   </si>
   <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
     <t>full moon or new moon observance day</t>
   </si>
   <si>
@@ -481,39 +484,39 @@
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
+    <t>need (for); want (for)</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>teacher; spiritual teacher</t>
+  </si>
+  <si>
+    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>beneficial friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection (of houses)</t>
+  </si>
+  <si>
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
-    <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; spiritual teacher</t>
-  </si>
-  <si>
-    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>beneficial friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection (of houses)</t>
-  </si>
-  <si>
     <t>Such Become; Realised; being in such a state; arrived to the truth; epithet of the Buddha; lit. thus gone; (or) thus came</t>
   </si>
   <si>
@@ -536,9 +539,6 @@
   </si>
   <si>
     <t>attention; mental application; lit. making in mind</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
     <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -31,15 +31,126 @@
     <t>class</t>
   </si>
   <si>
+    <t>vinaya 1</t>
+  </si>
+  <si>
+    <t>dhamma 03</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>samaya 1</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
     <t>loka 1</t>
   </si>
   <si>
     <t>kāma 3</t>
   </si>
   <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
     <t>sāvaka</t>
   </si>
   <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 02</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
@@ -49,6 +160,21 @@
     <t>samatikkama</t>
   </si>
   <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2</t>
+  </si>
+  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -61,132 +187,6 @@
     <t>kesa</t>
   </si>
   <si>
-    <t>vinaya 1</t>
-  </si>
-  <si>
-    <t>dhamma 03</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
     <t>sahāya</t>
   </si>
   <si>
@@ -295,15 +295,126 @@
     <t>masc</t>
   </si>
   <si>
+    <t>discipline; training; lit. leading out</t>
+  </si>
+  <si>
+    <t>teaching; doctrine</t>
+  </si>
+  <si>
+    <t>human; human being; man</t>
+  </si>
+  <si>
+    <t>deity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; existence; becoming</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>house; dwelling place; residence</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. coming together; meeting</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>touch; contact; sense impingement</t>
+  </si>
+  <si>
     <t>world; universe; cosmos</t>
   </si>
   <si>
     <t>sense desire (of); sensual pleasure (of)</t>
   </si>
   <si>
+    <t>leg; foot</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; lit. bad fall</t>
+  </si>
+  <si>
+    <t>community; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; agitation; trouble; despair</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow</t>
+  </si>
+  <si>
+    <t>breaking-up (of); breaking apart (of); death</t>
+  </si>
+  <si>
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
+  </si>
+  <si>
+    <t>obstacle; hindrance; obstruction; barrier</t>
+  </si>
+  <si>
+    <t>trainee; belonging to training; one who is in the course of perfection</t>
+  </si>
+  <si>
+    <t>quality; characteristic</t>
+  </si>
+  <si>
+    <t>independence; freedom from clinging; non-attachment</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; dropping; abandoning</t>
+  </si>
+  <si>
+    <t>abandoning; giving up; renunciation</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending; termination; cessation; finishing</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>death; Death personified; the Evil One; Māra</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
     <t>arrival (at); attainment (of); reaching (of)</t>
   </si>
   <si>
@@ -313,6 +424,21 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; saint; holy man; sage</t>
+  </si>
+  <si>
+    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>waning; fading away; lit. discolouring</t>
+  </si>
+  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -323,132 +449,6 @@
   </si>
   <si>
     <t>hair of the head</t>
-  </si>
-  <si>
-    <t>discipline; training; lit. leading out</t>
-  </si>
-  <si>
-    <t>teaching; doctrine</t>
-  </si>
-  <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; existence; becoming</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
   </si>
   <si>
     <t>friend; companion; fellow traveller</t>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -34,7 +34,7 @@
     <t>vinaya 1</t>
   </si>
   <si>
-    <t>dhamma 03</t>
+    <t>dhamma 1.03</t>
   </si>
   <si>
     <t>manussa</t>
@@ -61,183 +61,183 @@
     <t>āvāsa 1</t>
   </si>
   <si>
-    <t>samaya 1</t>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
   </si>
   <si>
     <t>ābādha</t>
   </si>
   <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1</t>
-  </si>
-  <si>
-    <t>dhamma 05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>attha 05</t>
-  </si>
-  <si>
-    <t>patta 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
     <t>upajjhāya</t>
   </si>
   <si>
@@ -259,10 +259,10 @@
     <t>thullaccaya</t>
   </si>
   <si>
-    <t>thera 2</t>
-  </si>
-  <si>
-    <t>dhamma 09</t>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
   </si>
   <si>
     <t>nara</t>
@@ -277,7 +277,7 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>satipaṭṭhāna</t>
+    <t>satipaṭṭhāna 1</t>
   </si>
   <si>
     <t>sīha 1</t>
@@ -298,16 +298,16 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
-    <t>teaching; doctrine</t>
-  </si>
-  <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
   </si>
   <si>
     <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
@@ -316,232 +316,232 @@
     <t>full moon or new moon observance day</t>
   </si>
   <si>
-    <t>being; existence; becoming</t>
+    <t>being; becoming; existence</t>
   </si>
   <si>
     <t>rainy season; monsoon</t>
   </si>
   <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. coming together; meeting</t>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
   </si>
   <si>
     <t>disease; sickness; illness; affliction</t>
   </si>
   <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>disciple; pupil; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>arrival (at); attainment (of); reaching (of)</t>
-  </si>
-  <si>
-    <t>method; system; (right) path</t>
-  </si>
-  <si>
-    <t>surpassing; overcoming; going beyond</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
-    <t>distinction; attainment</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>hair of the head</t>
-  </si>
-  <si>
-    <t>friend; companion; fellow traveller</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>the Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising; appearing; coming into being</t>
-  </si>
-  <si>
-    <t>state of mind; mental states</t>
-  </si>
-  <si>
-    <t>stupidity; delusion; illusion; confusion</t>
-  </si>
-  <si>
-    <t>fool; immature person; ignorant person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process; lit. collection</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; spiritual teacher</t>
-  </si>
-  <si>
-    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
+    <t>preceptor; teacher</t>
   </si>
   <si>
     <t>lay disciple; lay devotee; lit. who sits near</t>
   </si>
   <si>
-    <t>beneficial friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection (of houses)</t>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
   </si>
   <si>
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
-    <t>Such Become; Realised; being in such a state; arrived to the truth; epithet of the Buddha; lit. thus gone; (or) thus came</t>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
   </si>
   <si>
     <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
   </si>
   <si>
-    <t>elder; senior monk; monk with 10 or more vassa; lit. lasting</t>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>law; case; rule</t>
   </si>
   <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance</t>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
     <t>element of awakening; factor of enlightenment</t>
   </si>
   <si>
-    <t>attention; mental application; lit. making in mind</t>
-  </si>
-  <si>
-    <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
     <t>lion</t>
@@ -550,10 +550,10 @@
     <t>thought; reflection; pondering</t>
   </si>
   <si>
-    <t>result; consequence; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement</t>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
   </si>
   <si>
     <t>a-masc</t>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -67,6 +67,9 @@
     <t>saṅkhāra 3</t>
   </si>
   <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
     <t>phassa 1</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>āsava 2</t>
   </si>
   <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
     <t>nīvaraṇa 1</t>
   </si>
   <si>
@@ -220,9 +226,6 @@
     <t>attha 2.1</t>
   </si>
   <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
     <t>anusaya</t>
   </si>
   <si>
@@ -232,9 +235,6 @@
     <t>ākāsa 2</t>
   </si>
   <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
     <t>ābādha</t>
   </si>
   <si>
@@ -331,6 +331,9 @@
     <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
   </si>
   <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
     <t>contact; sense impingement; raw experience; touch</t>
   </si>
   <si>
@@ -376,6 +379,9 @@
     <t>discharge; suppuration; outflow; effluent</t>
   </si>
   <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
     <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
   </si>
   <si>
@@ -484,9 +490,6 @@
     <t>need (for); want (for); lit. want</t>
   </si>
   <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
     <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
   </si>
   <si>
@@ -494,9 +497,6 @@
   </si>
   <si>
     <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
   </si>
   <si>
     <t>disease; sickness; illness; affliction</t>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -34,129 +34,156 @@
     <t>vinaya 1</t>
   </si>
   <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
     <t>dhamma 1.03</t>
   </si>
   <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
     <t>māra</t>
   </si>
   <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
     <t>ñāya</t>
   </si>
   <si>
@@ -166,9 +193,6 @@
     <t>khandha 3</t>
   </si>
   <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
     <t>vūpasama 1</t>
   </si>
   <si>
@@ -196,15 +220,9 @@
     <t>rukkha</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
     <t>gabbha 3</t>
   </si>
   <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
     <t>uppāda 1.1</t>
   </si>
   <si>
@@ -214,9 +232,6 @@
     <t>moha 1</t>
   </si>
   <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
     <t>kāya 1.1</t>
   </si>
   <si>
@@ -226,18 +241,6 @@
     <t>attha 2.1</t>
   </si>
   <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
     <t>upajjhāya</t>
   </si>
   <si>
@@ -271,9 +274,6 @@
     <t>nissaya 1</t>
   </si>
   <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
     <t>manasikāra</t>
   </si>
   <si>
@@ -298,129 +298,156 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
     <t>death; Death; death personified</t>
   </si>
   <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
     <t>method; system; means; way</t>
   </si>
   <si>
@@ -430,9 +457,6 @@
     <t>aggregate; combination; conglomeration</t>
   </si>
   <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
     <t>peace (of); calming (of); subsiding (of); settling (of)</t>
   </si>
   <si>
@@ -460,15 +484,9 @@
     <t>tree</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
     <t>room; inside room; inner chamber; lit. womb</t>
   </si>
   <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
     <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
   </si>
   <si>
@@ -478,9 +496,6 @@
     <t>illusion; delusion; hallucination</t>
   </si>
   <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
     <t>body; physical body; physical process</t>
   </si>
   <si>
@@ -490,18 +505,6 @@
     <t>need (for); want (for); lit. want</t>
   </si>
   <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
     <t>preceptor; teacher</t>
   </si>
   <si>
@@ -533,9 +536,6 @@
   </si>
   <si>
     <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
   </si>
   <si>
     <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="182">
-  <si>
-    <t>Pāli1</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>Meaning IN CONTEXT</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>class</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="185">
+  <si>
+    <t>pali_1</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>meaning_1</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>sbs_class</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
   </si>
   <si>
     <t>vinaya 1</t>
@@ -118,9 +121,6 @@
     <t>soka</t>
   </si>
   <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
     <t>brāhmaṇa 2</t>
   </si>
   <si>
@@ -130,171 +130,177 @@
     <t>bhava 2</t>
   </si>
   <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
     <t>bāla 2</t>
   </si>
   <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
+    <t>adj</t>
   </si>
   <si>
     <t>masc</t>
   </si>
   <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
@@ -382,9 +388,6 @@
     <t>grief; sorrow; sadness</t>
   </si>
   <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
     <t>arahant; enlightened being; saint; paragon</t>
   </si>
   <si>
@@ -394,169 +397,175 @@
     <t>being; becoming; existence</t>
   </si>
   <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
     <t>fool; idiot; immature person</t>
   </si>
   <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
+    <t>a-adj</t>
   </si>
   <si>
     <t>a-masc</t>
+  </si>
+  <si>
+    <t>a-masc-east</t>
   </si>
   <si>
     <t>2</t>
@@ -948,13 +957,13 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -962,16 +971,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -979,16 +988,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -996,16 +1005,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1013,16 +1022,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1030,16 +1039,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1047,16 +1056,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1064,16 +1073,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1081,16 +1090,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1098,16 +1107,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1115,16 +1124,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1132,16 +1141,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1149,16 +1158,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1166,16 +1175,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1183,16 +1192,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1200,16 +1209,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1217,16 +1226,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1234,16 +1243,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1251,16 +1260,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1268,16 +1277,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1285,16 +1294,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1302,16 +1311,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1319,16 +1328,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1336,16 +1345,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1353,16 +1362,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1370,16 +1379,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1387,16 +1396,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1404,16 +1413,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1421,16 +1430,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1438,16 +1447,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1455,16 +1464,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1472,16 +1481,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1489,16 +1498,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1506,16 +1515,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1523,16 +1532,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1540,16 +1549,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1557,16 +1566,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1574,16 +1583,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1591,16 +1600,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1608,16 +1617,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1625,16 +1634,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1642,16 +1651,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1659,16 +1668,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1676,16 +1685,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1693,16 +1702,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1710,16 +1719,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E47" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1727,16 +1736,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E48" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1744,16 +1753,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E49" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1761,16 +1770,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E50" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1778,16 +1787,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E51" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1795,16 +1804,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E52" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1812,16 +1821,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E53" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1829,16 +1838,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E54" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1846,16 +1855,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E55" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1863,16 +1872,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E56" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1880,16 +1889,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1897,16 +1906,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E58" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1914,16 +1923,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E59" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1931,16 +1940,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E60" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1948,16 +1957,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1965,16 +1974,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E62" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1982,16 +1991,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E63" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1999,16 +2008,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E64" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2016,16 +2025,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E65" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2033,16 +2042,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D66" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E66" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2050,16 +2059,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E67" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2067,16 +2076,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E68" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2084,16 +2093,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E69" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2101,16 +2110,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2118,16 +2127,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E71" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2135,16 +2144,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E72" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2152,16 +2161,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D73" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E73" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2169,16 +2178,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E74" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2186,16 +2195,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D75" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E75" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2203,16 +2212,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D76" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E76" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,16 +2229,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D77" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E77" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2237,16 +2246,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D78" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2254,16 +2263,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D79" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E79" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2271,16 +2280,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D80" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E80" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2288,16 +2297,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D81" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E81" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2305,16 +2314,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D82" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E82" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2322,16 +2331,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E83" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2339,16 +2348,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D84" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E84" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2356,16 +2365,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D85" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E85" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2373,16 +2382,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D86" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E86" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2390,16 +2399,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D87" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E87" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2407,16 +2416,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D88" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E88" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="183">
   <si>
     <t>pali_1</t>
   </si>
@@ -31,12 +31,18 @@
     <t>sbs_class</t>
   </si>
   <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
     <t>vinaya 1</t>
   </si>
   <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
     <t>manussa</t>
   </si>
   <si>
@@ -46,264 +52,261 @@
     <t>saṅghādisesa 2</t>
   </si>
   <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
     <t>brāhmaṇa 1</t>
   </si>
   <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>sahāya</t>
   </si>
   <si>
     <t>āvāsa 1</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
+    <t>viveka 1</t>
   </si>
   <si>
     <t>chanda 1</t>
   </si>
   <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
   </si>
   <si>
     <t>khaya</t>
   </si>
   <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
+    <t>attha 2.1</t>
   </si>
   <si>
     <t>anālaya 1</t>
   </si>
   <si>
-    <t>paṭinissagga</t>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
   </si>
   <si>
     <t>cāga 1</t>
   </si>
   <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
     <t>thullaccaya</t>
   </si>
   <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
     <t>bāla 2</t>
   </si>
   <si>
-    <t>adj</t>
-  </si>
-  <si>
     <t>masc</t>
   </si>
   <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
     <t>human being; man; person</t>
   </si>
   <si>
@@ -313,253 +316,244 @@
     <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
     <t>Brahman; priest; man of the Brahman caste</t>
   </si>
   <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
   </si>
   <si>
     <t>home (of); dwelling place (of); residence (of)</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
   </si>
   <si>
     <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
   </si>
   <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
   </si>
   <si>
     <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
   </si>
   <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+    <t>need (for); want (for); lit. want</t>
   </si>
   <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
   </si>
   <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
   </si>
   <si>
     <t>giving up; relinquishing; abandoning</t>
   </si>
   <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
     <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
   </si>
   <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
     <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>a-adj</t>
   </si>
   <si>
     <t>a-masc</t>
@@ -957,13 +951,13 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -971,16 +965,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -988,16 +982,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1005,16 +999,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1022,16 +1016,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1039,16 +1033,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1056,16 +1050,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1073,16 +1067,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1090,16 +1084,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1107,16 +1101,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1124,16 +1118,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1141,16 +1135,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1158,16 +1152,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1175,16 +1169,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1192,16 +1186,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1209,16 +1203,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1226,16 +1220,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1243,16 +1237,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1260,16 +1254,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1277,16 +1271,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1294,16 +1288,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1311,16 +1305,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1328,16 +1322,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1345,16 +1339,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1362,16 +1356,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1379,16 +1373,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1396,16 +1390,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1413,16 +1407,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1430,16 +1424,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1447,16 +1441,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1464,16 +1458,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1481,16 +1475,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1498,16 +1492,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1515,16 +1509,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1532,16 +1526,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1549,16 +1543,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1566,16 +1560,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1583,16 +1577,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1600,16 +1594,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1617,16 +1611,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1634,16 +1628,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1651,16 +1645,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1668,16 +1662,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1685,16 +1679,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1702,16 +1696,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1719,16 +1713,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1736,16 +1730,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1753,16 +1747,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1770,16 +1764,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1787,16 +1781,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1804,16 +1798,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1821,16 +1815,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1838,16 +1832,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,16 +1849,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,16 +1866,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E56" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,16 +1883,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E57" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,16 +1900,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,16 +1917,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,16 +1934,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E60" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,16 +1951,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,16 +1968,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,16 +1985,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,16 +2002,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,16 +2019,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,16 +2036,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,16 +2053,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,16 +2070,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,16 +2087,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E69" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,16 +2104,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,16 +2121,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,16 +2138,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E72" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,16 +2155,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,16 +2172,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,16 +2189,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E75" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2212,16 +2206,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E76" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2229,16 +2223,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E77" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2246,16 +2240,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2263,16 +2257,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E79" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2280,16 +2274,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E80" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2297,16 +2291,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E81" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2314,16 +2308,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2331,16 +2325,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E83" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2348,16 +2342,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E84" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2365,16 +2359,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E85" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2382,16 +2376,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E86" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2399,16 +2393,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E87" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2416,16 +2410,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E88" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -415,7 +415,7 @@
     <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
   </si>
   <si>
-    <t>trainee; apprentice; learner; initiate</t>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
   </si>
   <si>
     <t>quality; characteristic; trait; inherent quality</t>

--- a/pali-class/vocab/vocab-class2.xlsx
+++ b/pali-class/vocab/vocab-class2.xlsx
@@ -73,204 +73,204 @@
     <t>cāga 2</t>
   </si>
   <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>bheda 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
     <t>anālaya 1</t>
   </si>
   <si>
@@ -337,202 +337,202 @@
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
     <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>death; lit. breakup</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
   </si>
   <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
